--- a/BackTest/2019-10-30 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-30 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-221566.5002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-221566.5002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-221566.5002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-221566.5002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-376346.638</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-306361.0133</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-445393.3605</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-445393.3605</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-445393.3605</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-520831.8605</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,19 @@
         <v>-445157.8471</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>34.5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3427,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3466,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3505,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3544,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3583,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3622,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3661,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3700,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3739,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3778,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,22 +3815,21 @@
         <v>-820329.8987</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K102" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>34.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4096,26 +3854,21 @@
         <v>-820329.8987</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>34.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4140,26 +3893,21 @@
         <v>-804279.8987</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>34.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4184,22 +3932,21 @@
         <v>-804279.8987</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>34.5</v>
       </c>
-      <c r="K105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4226,22 +3973,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4268,22 +4012,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4310,22 +4051,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4352,22 +4090,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4394,22 +4129,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4436,22 +4168,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4478,22 +4207,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4520,22 +4246,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4562,22 +4285,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4604,22 +4324,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4644,24 +4361,23 @@
         <v>-821993.3368999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>34.7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4688,22 +4404,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4730,22 +4443,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4772,22 +4482,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4814,22 +4521,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4856,22 +4560,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4898,22 +4599,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4940,22 +4638,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4982,22 +4677,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5024,22 +4716,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5066,24 +4755,21 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-30 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-221576.5002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-222336.5002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-222326.5002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-222336.5002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-220347.5002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-220337.5002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-220337.5002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-360593.0305</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-360583.0305</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-387099.0469</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-358363.4148</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-358363.4148</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-358363.4148</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-372675.2905</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-372665.2905</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-372683.3795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-372495.3795</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-376346.638</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-376346.638</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-376346.638</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-376336.638</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-376351.5269</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-306346.5237</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-306361.0133</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-306361.0133</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-306327.0133</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-443088.6723</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-520831.8605</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3388,14 +3388,10 @@
         <v>-445157.8471</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3428,1108 +3424,942 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>259496.5023</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-704654.3493999999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21136.9253</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-683517.4240999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2461.9294</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-685979.3535</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2482.9294</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-683496.4240999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>28966.1199</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-712462.544</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>200</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-712462.544</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>151</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-712462.544</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14251.9186</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-726714.4626</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>93625.43610000001</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-820339.8987</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-820329.8987</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>738.0814</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-820329.8987</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>16050</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-804279.8987</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-804279.8987</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16143.1358</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-788136.7629</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C107" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>29011.1494</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-788136.7629</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2299.3923</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-790436.1551999999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-794936.1551999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>27700.6077</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-767235.5474999999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>518.0323</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-767235.5474999999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-767225.5474999999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>998.12</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-767225.5474999999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-767225.5474999999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>24564.4788</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-742661.0686999998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>79332.26820000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-821993.3368999999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4241.8948</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-826235.2316999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-826225.2316999999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>85106.1468</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-826225.2316999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>194427.7873</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-631797.4443999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>259496.5023</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-704654.3493999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C94" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E94" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>21136.9253</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-683517.4240999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2461.9294</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-685979.3535</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2482.9294</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-683496.4240999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>28966.1199</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>200</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F99" t="n">
-        <v>151</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>14251.9186</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-726714.4626</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>93625.43610000001</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-820339.8987</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-820329.8987</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>738.0814</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-820329.8987</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>16050</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-804279.8987</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-804279.8987</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F106" t="n">
-        <v>16143.1358</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-788136.7629</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C107" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D107" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>29011.1494</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-788136.7629</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2299.3923</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-790436.1551999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-794936.1551999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>27700.6077</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-767235.5474999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>518.0323</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-767235.5474999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C112" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D112" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E112" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F112" t="n">
-        <v>10</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-767225.5474999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F113" t="n">
-        <v>998.12</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-767225.5474999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="D114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F114" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-767225.5474999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E115" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>24564.4788</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-742661.0686999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="E116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>79332.26820000001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-821993.3368999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4241.8948</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-826235.2316999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-826225.2316999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>85106.1468</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-826225.2316999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D120" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>194427.7873</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-631797.4443999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4566,7 +4396,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4600,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4639,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4678,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4529,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4756,20 +4562,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-30 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-221576.5002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-221566.5002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-222336.5002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-222326.5002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-222336.5002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-220347.5002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-220337.5002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-220337.5002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-360593.0305</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-360583.0305</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-387099.0469</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-358363.4148</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-358363.4148</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-358363.4148</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-372675.2905</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-372665.2905</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-372683.3795</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-372495.3795</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-376346.638</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-376346.638</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-376346.638</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-376336.638</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-376351.5269</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-306346.5237</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-306361.0133</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-306361.0133</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-306327.0133</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-443088.6723</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3058,11 +3058,17 @@
         <v>-818696.1632</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3097,17 @@
         <v>-818696.1632</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>34.3</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3140,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3177,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3214,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3251,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3288,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3325,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3362,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3399,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3436,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3473,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3510,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3547,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3584,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3621,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3658,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3695,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3732,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3769,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3806,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3843,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3880,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3917,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3954,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3991,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4028,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4065,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4102,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4139,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4176,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4213,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4250,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4287,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4324,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4361,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4398,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4435,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,15 +4468,15 @@
         <v>-826225.2316999999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4352,12 +4508,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4388,20 +4542,16 @@
         <v>-631797.4443999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>34.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -4570,6 +4720,6 @@
       <c r="M126" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-30 BackTest HDAC.xlsx
@@ -1078,7 +1078,7 @@
         <v>-375582.588</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-306356.5237</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-306361.0133</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-306327.0133</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-306327.0133</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-445393.3605</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-520831.8605</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3058,944 +3058,880 @@
         <v>-818696.1632</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>34.3</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="C82" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>215633</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-818696.1632</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>101221.8185</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-717474.3447</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1583.4571</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-715890.8876</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>416.5429</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-715890.8876</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>546.5535</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-716437.4411000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20431.4868</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-736868.9279</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-736868.9279</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1641</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-738509.9279</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5738.2018</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-732771.7261</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>287613.879</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-445157.8471</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>62763.0747</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-445157.8471</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>259496.5023</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-704654.3493999999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21136.9253</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-683517.4240999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2461.9294</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-685979.3535</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2482.9294</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-683496.4240999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>28966.1199</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-712462.544</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>200</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-712462.544</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>151</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-712462.544</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14251.9186</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-726714.4626</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>93625.43610000001</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-820339.8987</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-820329.8987</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>738.0814</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-820329.8987</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>16050</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-804279.8987</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J104" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-804279.8987</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16143.1358</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-788136.7629</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>215633</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-818696.1632</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E83" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>101221.8185</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-717474.3447</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C84" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D84" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E84" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1583.4571</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-715890.8876</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>416.5429</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-715890.8876</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>546.5535</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-716437.4411000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F87" t="n">
-        <v>20431.4868</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-736868.9279</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-736868.9279</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1641</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-738509.9279</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5738.2018</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-732771.7261</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C91" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D91" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>287613.879</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-445157.8471</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D92" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>62763.0747</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-445157.8471</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>259496.5023</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-704654.3493999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C94" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E94" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>21136.9253</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-683517.4240999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2461.9294</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-685979.3535</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2482.9294</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-683496.4240999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D97" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>28966.1199</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>200</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E99" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F99" t="n">
-        <v>151</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>14251.9186</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-726714.4626</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>93625.43610000001</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-820339.8987</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-820329.8987</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>738.0814</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-820329.8987</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>16050</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-804279.8987</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-804279.8987</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F106" t="n">
-        <v>16143.1358</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-788136.7629</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4027,7 +3963,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,7 +4002,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4101,7 +4041,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,7 +4080,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,7 +4119,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,10 +4155,14 @@
         <v>-767225.5474999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,10 +4196,14 @@
         <v>-767225.5474999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,10 +4237,14 @@
         <v>-767225.5474999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,10 +4278,14 @@
         <v>-742661.0686999998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J115" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,10 +4319,14 @@
         <v>-821993.3368999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,10 +4360,14 @@
         <v>-826235.2316999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,10 +4401,14 @@
         <v>-826225.2316999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,10 +4442,14 @@
         <v>-826225.2316999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4508,7 +4486,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,16 +4522,20 @@
         <v>-631797.4443999999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -4580,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +4681,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4712,8 +4720,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-30 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>-221566.5002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>141382</v>
       </c>
       <c r="G3" t="n">
-        <v>-221566.5002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>132048.5224</v>
       </c>
       <c r="G4" t="n">
-        <v>-221566.5002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>-221566.5002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-221576.5002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-221566.5002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>770</v>
       </c>
       <c r="G8" t="n">
-        <v>-222336.5002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-222326.5002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-222336.5002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1989</v>
       </c>
       <c r="G11" t="n">
-        <v>-220347.5002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-220337.5002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>24355.3008</v>
       </c>
       <c r="G13" t="n">
-        <v>-220337.5002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>19968.8831</v>
       </c>
       <c r="G14" t="n">
-        <v>-240306.3833</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2466.0458</v>
       </c>
       <c r="G15" t="n">
-        <v>-237840.3375</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>15.693</v>
       </c>
       <c r="G16" t="n">
-        <v>-237856.0305</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>122737</v>
       </c>
       <c r="G17" t="n">
-        <v>-360593.0305</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-360583.0305</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>47341</v>
       </c>
       <c r="G19" t="n">
-        <v>-360583.0305</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>14999.5575</v>
       </c>
       <c r="G20" t="n">
-        <v>-375582.588</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>29325.5131</v>
       </c>
       <c r="G21" t="n">
-        <v>-375582.588</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>8600.329400000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-366982.2586</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>18.888</v>
       </c>
       <c r="G23" t="n">
-        <v>-366982.2586</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>14.774</v>
       </c>
       <c r="G24" t="n">
-        <v>-366982.2586</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>20116.7883</v>
       </c>
       <c r="G25" t="n">
-        <v>-387099.0469</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>15.447</v>
       </c>
       <c r="G26" t="n">
-        <v>-387099.0469</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>28735.6321</v>
       </c>
       <c r="G27" t="n">
-        <v>-358363.4148</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1264.3679</v>
       </c>
       <c r="G28" t="n">
-        <v>-358363.4148</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>13632.6608</v>
       </c>
       <c r="G29" t="n">
-        <v>-358363.4148</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>14311.8757</v>
       </c>
       <c r="G30" t="n">
-        <v>-372675.2905</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-372665.2905</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>18.089</v>
       </c>
       <c r="G32" t="n">
-        <v>-372683.3795</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>188</v>
       </c>
       <c r="G33" t="n">
-        <v>-372495.3795</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>15.798</v>
       </c>
       <c r="G34" t="n">
-        <v>-372495.3795</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>14.789</v>
       </c>
       <c r="G35" t="n">
-        <v>-372495.3795</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>14.885</v>
       </c>
       <c r="G36" t="n">
-        <v>-372495.3795</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3851.2585</v>
       </c>
       <c r="G37" t="n">
-        <v>-376346.638</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>59.5582</v>
       </c>
       <c r="G38" t="n">
-        <v>-376346.638</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>14.7745</v>
       </c>
       <c r="G39" t="n">
-        <v>-376346.638</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>15.896</v>
       </c>
       <c r="G40" t="n">
-        <v>-376346.638</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>13.4785</v>
       </c>
       <c r="G41" t="n">
-        <v>-376346.638</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-376336.638</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>14.8889</v>
       </c>
       <c r="G43" t="n">
-        <v>-376351.5269</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>13.558</v>
       </c>
       <c r="G44" t="n">
-        <v>-376351.5269</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>18.9968</v>
       </c>
       <c r="G45" t="n">
-        <v>-376351.5269</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>25.896</v>
       </c>
       <c r="G46" t="n">
-        <v>-376351.5269</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>70010</v>
       </c>
       <c r="G47" t="n">
-        <v>-306341.5269</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>14.9968</v>
       </c>
       <c r="G48" t="n">
-        <v>-306356.5237</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>62796.2054</v>
       </c>
       <c r="G49" t="n">
-        <v>-306356.5237</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>15699.0513</v>
       </c>
       <c r="G50" t="n">
-        <v>-306356.5237</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>200226.1132</v>
       </c>
       <c r="G51" t="n">
-        <v>-306356.5237</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>11415.6765</v>
       </c>
       <c r="G52" t="n">
-        <v>-306356.5237</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-306346.5237</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>14.4896</v>
       </c>
       <c r="G54" t="n">
-        <v>-306361.0133</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>12.794</v>
       </c>
       <c r="G55" t="n">
-        <v>-306361.0133</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>34</v>
       </c>
       <c r="G56" t="n">
-        <v>-306327.0133</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>473.0954</v>
       </c>
       <c r="G57" t="n">
-        <v>-306327.0133</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>20000</v>
       </c>
       <c r="G58" t="n">
-        <v>-306327.0133</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>194210.0544</v>
       </c>
       <c r="G59" t="n">
-        <v>-500537.0677</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1408.6664</v>
       </c>
       <c r="G60" t="n">
-        <v>-500537.0677</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>57448.3954</v>
       </c>
       <c r="G61" t="n">
-        <v>-443088.6723</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2304.6882</v>
       </c>
       <c r="G62" t="n">
-        <v>-445393.3605</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>30163.5686</v>
       </c>
       <c r="G63" t="n">
-        <v>-445393.3605</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>37023.0057</v>
       </c>
       <c r="G64" t="n">
-        <v>-445393.3605</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>20668.1059</v>
       </c>
       <c r="G65" t="n">
-        <v>-445393.3605</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>5760.1797</v>
       </c>
       <c r="G66" t="n">
-        <v>-445393.3605</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-445383.3605</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>75448.5</v>
       </c>
       <c r="G68" t="n">
-        <v>-520831.8605</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-520821.8605</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>30</v>
       </c>
       <c r="G70" t="n">
-        <v>-520851.8605</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1605.0431</v>
       </c>
       <c r="G71" t="n">
-        <v>-519246.8174</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>40599.221</v>
       </c>
       <c r="G72" t="n">
-        <v>-559846.0384</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>12000</v>
       </c>
       <c r="G73" t="n">
-        <v>-571846.0384</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>5925.2173</v>
       </c>
       <c r="G74" t="n">
-        <v>-571846.0384</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>-561846.0384</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>226508.1248</v>
       </c>
       <c r="G76" t="n">
-        <v>-788354.1632</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>352</v>
       </c>
       <c r="G77" t="n">
-        <v>-788706.1632</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>14243.423</v>
       </c>
       <c r="G78" t="n">
-        <v>-788706.1632</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>-788696.1632</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>30000</v>
       </c>
       <c r="G80" t="n">
-        <v>-818696.1632</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>15146.4431</v>
       </c>
       <c r="G81" t="n">
-        <v>-818696.1632</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>215633</v>
       </c>
       <c r="G82" t="n">
-        <v>-818696.1632</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,22 +2873,15 @@
         <v>101221.8185</v>
       </c>
       <c r="G83" t="n">
-        <v>-717474.3447</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3158,294 +2903,273 @@
         <v>1583.4571</v>
       </c>
       <c r="G84" t="n">
-        <v>-715890.8876</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>416.5429</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>546.5535</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>34.3</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="C87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20431.4868</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1641</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5738.2018</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>287613.879</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E85" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F85" t="n">
-        <v>416.5429</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-715890.8876</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>62763.0747</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E86" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>546.5535</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-716437.4411000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F87" t="n">
-        <v>20431.4868</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-736868.9279</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E88" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-736868.9279</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1641</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-738509.9279</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5738.2018</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-732771.7261</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="C91" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D91" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>287613.879</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-445157.8471</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D92" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>62763.0747</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-445157.8471</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3467,18 +3191,15 @@
         <v>259496.5023</v>
       </c>
       <c r="G93" t="n">
-        <v>-704654.3493999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,18 +3221,15 @@
         <v>21136.9253</v>
       </c>
       <c r="G94" t="n">
-        <v>-683517.4240999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3533,18 +3251,15 @@
         <v>2461.9294</v>
       </c>
       <c r="G95" t="n">
-        <v>-685979.3535</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,18 +3281,15 @@
         <v>2482.9294</v>
       </c>
       <c r="G96" t="n">
-        <v>-683496.4240999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3599,18 +3311,15 @@
         <v>28966.1199</v>
       </c>
       <c r="G97" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3632,18 +3341,15 @@
         <v>200</v>
       </c>
       <c r="G98" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,18 +3371,15 @@
         <v>151</v>
       </c>
       <c r="G99" t="n">
-        <v>-712462.544</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3698,18 +3401,15 @@
         <v>14251.9186</v>
       </c>
       <c r="G100" t="n">
-        <v>-726714.4626</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3731,18 +3431,15 @@
         <v>93625.43610000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-820339.8987</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3764,18 +3461,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>-820329.8987</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,22 +3491,15 @@
         <v>738.0814</v>
       </c>
       <c r="G103" t="n">
-        <v>-820329.8987</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3834,26 +3521,15 @@
         <v>16050</v>
       </c>
       <c r="G104" t="n">
-        <v>-804279.8987</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3875,26 +3551,15 @@
         <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>-804279.8987</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3916,26 +3581,15 @@
         <v>16143.1358</v>
       </c>
       <c r="G106" t="n">
-        <v>-788136.7629</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3957,24 +3611,15 @@
         <v>29011.1494</v>
       </c>
       <c r="G107" t="n">
-        <v>-788136.7629</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3996,24 +3641,15 @@
         <v>2299.3923</v>
       </c>
       <c r="G108" t="n">
-        <v>-790436.1551999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4035,24 +3671,15 @@
         <v>4500</v>
       </c>
       <c r="G109" t="n">
-        <v>-794936.1551999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4074,24 +3701,15 @@
         <v>27700.6077</v>
       </c>
       <c r="G110" t="n">
-        <v>-767235.5474999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4113,24 +3731,15 @@
         <v>518.0323</v>
       </c>
       <c r="G111" t="n">
-        <v>-767235.5474999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4152,26 +3761,15 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-767225.5474999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4193,26 +3791,15 @@
         <v>998.12</v>
       </c>
       <c r="G113" t="n">
-        <v>-767225.5474999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4234,26 +3821,15 @@
         <v>25000</v>
       </c>
       <c r="G114" t="n">
-        <v>-767225.5474999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4275,26 +3851,15 @@
         <v>24564.4788</v>
       </c>
       <c r="G115" t="n">
-        <v>-742661.0686999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J115" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4316,26 +3881,15 @@
         <v>79332.26820000001</v>
       </c>
       <c r="G116" t="n">
-        <v>-821993.3368999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4357,26 +3911,15 @@
         <v>4241.8948</v>
       </c>
       <c r="G117" t="n">
-        <v>-826235.2316999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4398,26 +3941,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-826225.2316999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4439,26 +3971,15 @@
         <v>85106.1468</v>
       </c>
       <c r="G119" t="n">
-        <v>-826225.2316999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4480,24 +4001,15 @@
         <v>194427.7873</v>
       </c>
       <c r="G120" t="n">
-        <v>-631797.4443999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4519,24 +4031,15 @@
         <v>107418.6511</v>
       </c>
       <c r="G121" t="n">
-        <v>-631797.4443999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4558,24 +4061,15 @@
         <v>25559.0062</v>
       </c>
       <c r="G122" t="n">
-        <v>-606238.4382</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4597,24 +4091,15 @@
         <v>8276.446900000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-606238.4382</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4636,24 +4121,15 @@
         <v>3827.4284</v>
       </c>
       <c r="G124" t="n">
-        <v>-610065.8666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4675,24 +4151,15 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>-610055.8666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4714,24 +4181,15 @@
         <v>11700</v>
       </c>
       <c r="G126" t="n">
-        <v>-621755.8666</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
